--- a/DatabaseDocs/Docs/IncomeTax/ITAX.xlsx
+++ b/DatabaseDocs/Docs/IncomeTax/ITAX.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>Monthly</t>
   </si>
@@ -390,7 +390,7 @@
   <dimension ref="B1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -401,7 +401,8 @@
     <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
@@ -445,21 +446,16 @@
         <f>C2-(D2+E2+F2)</f>
         <v>961600</v>
       </c>
-      <c r="H2" s="1">
-        <v>250000</v>
-      </c>
-      <c r="I2" s="2">
-        <f>G2-H2</f>
-        <v>711600</v>
-      </c>
-      <c r="J2" s="1">
-        <f>(20*I2)/100</f>
-        <v>142320</v>
-      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="1"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G4">
-        <v>109013</v>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="2">
+        <v>961600</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">

--- a/DatabaseDocs/Docs/IncomeTax/ITAX.xlsx
+++ b/DatabaseDocs/Docs/IncomeTax/ITAX.xlsx
@@ -16,24 +16,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
-  <si>
-    <t>Monthly</t>
-  </si>
-  <si>
-    <t>Yearly</t>
-  </si>
-  <si>
-    <t>PTAX Ded</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Net Taxable Income</t>
   </si>
   <si>
-    <t>Std Ded</t>
-  </si>
-  <si>
-    <t>PPF Ded</t>
+    <t>From</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>Tax Rate</t>
+  </si>
+  <si>
+    <t>Appl Amt</t>
+  </si>
+  <si>
+    <t>Balance Amt</t>
+  </si>
+  <si>
+    <t>Tax</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -60,15 +66,39 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -76,15 +106,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -387,79 +444,183 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J8"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="1">
-        <v>97000</v>
-      </c>
-      <c r="C2" s="1">
-        <f>12*B2</f>
-        <v>1164000</v>
-      </c>
-      <c r="D2" s="2">
-        <v>50000</v>
-      </c>
-      <c r="E2">
-        <v>2400</v>
-      </c>
-      <c r="F2">
-        <v>150000</v>
-      </c>
-      <c r="G2" s="2">
-        <f>C2-(D2+E2+F2)</f>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4">
         <v>961600</v>
       </c>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="2"/>
       <c r="H2" s="1"/>
       <c r="I2" s="2"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I3" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="2">
-        <v>961600</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>0</v>
+      </c>
+      <c r="B5" s="10">
+        <v>250000</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0</v>
+      </c>
+      <c r="D5" s="10">
+        <v>250000</v>
+      </c>
+      <c r="E5" s="11">
+        <f>E1-D5</f>
+        <v>711600</v>
+      </c>
+      <c r="F5" s="9">
+        <f>(C5*D5)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>250001</v>
+      </c>
+      <c r="B6" s="10">
+        <v>500000</v>
+      </c>
+      <c r="C6" s="9">
+        <v>5</v>
+      </c>
+      <c r="D6" s="10">
+        <v>250000</v>
+      </c>
+      <c r="E6" s="11">
+        <f>E5-D6</f>
+        <v>461600</v>
+      </c>
+      <c r="F6" s="10">
+        <f>(C6*D6)/100</f>
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>500001</v>
+      </c>
+      <c r="B7" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="C7" s="9">
+        <v>20</v>
+      </c>
+      <c r="D7" s="11">
+        <f>E6</f>
+        <v>461600</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0</v>
+      </c>
+      <c r="F7" s="10">
+        <f>(C7*D7)/100</f>
+        <v>92320</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>1000001</v>
+      </c>
+      <c r="B8" s="10">
+        <v>10000000</v>
+      </c>
+      <c r="C8" s="9">
+        <v>30</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0</v>
+      </c>
+      <c r="F8" s="9"/>
       <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="14">
+        <f>SUM(F5:F8)</f>
+        <v>104820</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
